--- a/data/trans_bre/IP21-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP21-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 1,82</t>
+          <t>-6,36; 1,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 2,45</t>
+          <t>-5,7; 2,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 6,41</t>
+          <t>-2,11; 6,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 0,0</t>
+          <t>-13,09; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 225,29</t>
+          <t>-100,0; 237,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,25</t>
+          <t>-3,3; 1,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,7</t>
+          <t>-1,75; 2,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,37</t>
+          <t>-2,09; 1,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,83</t>
+          <t>-1,54; 0,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,9; 32,85</t>
+          <t>-53,65; 33,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 79,49</t>
+          <t>-31,7; 81,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,45; 65,09</t>
+          <t>-54,75; 68,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-72,39; 100,8</t>
+          <t>-71,89; 110,59</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,77</t>
+          <t>-2,93; 3,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 1,58</t>
+          <t>-5,78; 1,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,54</t>
+          <t>-1,34; 4,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,59</t>
+          <t>-1,12; 3,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,01; 204,06</t>
+          <t>-57,25; 189,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,6; 93,15</t>
+          <t>-83,3; 58,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 287,53</t>
+          <t>-46,72; 317,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-78,9; 690,91</t>
+          <t>-64,03; 827,83</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,72</t>
+          <t>-2,59; 0,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,26</t>
+          <t>-2,03; 1,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,79</t>
+          <t>-1,31; 1,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,79</t>
+          <t>-1,39; 0,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 19,18</t>
+          <t>-47,48; 25,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 35,33</t>
+          <t>-38,66; 38,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 88,79</t>
+          <t>-37,2; 85,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-61,12; 73,6</t>
+          <t>-60,8; 94,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP21-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP21-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; 1,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 3,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 6,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,75; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 246,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-48,17%</t>
+          <t>-20,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-37,96%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>145,91%</t>
+          <t>-14,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-20,8%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,76</t>
+          <t>-3,31; 1,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 2,41</t>
+          <t>-2,09; 2,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,68</t>
+          <t>-2,13; 1,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 0,0</t>
+          <t>-1,48; 0,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 237,2</t>
+          <t>-52,25; 27,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,96; 73,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,39; 59,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,43; 107,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>-43,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-14,18%</t>
+          <t>52,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,85%</t>
+          <t>77,65%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,19</t>
+          <t>-2,86; 3,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,64</t>
+          <t>-5,45; 1,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,25</t>
+          <t>-1,36; 4,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,88</t>
+          <t>-1,14; 3,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,65; 33,19</t>
+          <t>-62,45; 207,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 81,2</t>
+          <t>-82,67; 59,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,75; 68,2</t>
+          <t>-41,93; 263,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,89; 110,59</t>
+          <t>-68,65; 940,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>-18,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-43,8%</t>
+          <t>-9,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,09%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>79,14%</t>
+          <t>-15,08%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,72</t>
+          <t>-2,42; 0,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 1,26</t>
+          <t>-2,1; 1,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,56</t>
+          <t>-1,09; 1,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,88</t>
+          <t>-1,24; 0,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,25; 189,04</t>
+          <t>-44,79; 25,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,3; 58,63</t>
+          <t>-40,21; 42,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 317,82</t>
+          <t>-31,15; 81,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,03; 827,83</t>
+          <t>-60,74; 88,27</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-18,66%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-8,92%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,65%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-13,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 0,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 1,34</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 1,71</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 0,83</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-47,48; 25,53</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-38,66; 38,39</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-37,2; 85,67</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-60,8; 94,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
